--- a/biology/Botanique/Chassalia_laikomensis/Chassalia_laikomensis.xlsx
+++ b/biology/Botanique/Chassalia_laikomensis/Chassalia_laikomensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chassalia laikomensis Cheek est une espèce de plantes de la famille des Rubiaceae et du genre Chassalia, endémique de la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique laikomensis fait référence à Laikom dans la Région du Nord-Ouest (Cameroun) où se trouve la plus importante concentration de l'espèce (Laikom Palace Forest[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique laikomensis fait référence à Laikom dans la Région du Nord-Ouest (Cameroun) où se trouve la plus importante concentration de l'espèce (Laikom Palace Forest).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste à fleurs blanches et à fruits noirs, qui peut atteindre 10 m de hauteur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste à fleurs blanches et à fruits noirs, qui peut atteindre 10 m de hauteur.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commune, elle a été récoltée sur une vingtaine de sites dans plusieurs régions du Cameroun (Adamaoua, Centre, Nord-Ouest, Ouest, Sud-Ouest). Elle a en outre été observée en Guinée équatoriale sur l'île de Bioko, ainsi qu'au Nigeria, sur le plateau de Mambila[5].
-Elle est cependant menacée par la perte de son habitat liée à l'expansion de l'agriculture[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commune, elle a été récoltée sur une vingtaine de sites dans plusieurs régions du Cameroun (Adamaoua, Centre, Nord-Ouest, Ouest, Sud-Ouest). Elle a en outre été observée en Guinée équatoriale sur l'île de Bioko, ainsi qu'au Nigeria, sur le plateau de Mambila.
+Elle est cependant menacée par la perte de son habitat liée à l'expansion de l'agriculture.
 </t>
         </is>
       </c>
